--- a/Documents/采购清单/(马思源&杨晨飞&王宇)8-9器件采购单(添加了器件).xlsx
+++ b/Documents/采购清单/(马思源&杨晨飞&王宇)8-9器件采购单(添加了器件).xlsx
@@ -895,9 +895,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +919,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1209,7 +1209,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="L24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L49" sqref="L49"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1226,16 +1226,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -2167,115 +2167,115 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="38" t="s">
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43" s="39">
         <v>20</v>
       </c>
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="38" t="s">
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="F44" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="G44" s="40">
+      <c r="G44" s="39">
         <v>20</v>
       </c>
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="42" t="s">
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="G45" s="40">
+      <c r="G45" s="39">
         <v>10</v>
       </c>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="37" t="s">
+    <row r="46" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="38" t="s">
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="F46" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="G46" s="40">
+      <c r="G46" s="39">
         <v>10</v>
       </c>
-      <c r="H46" s="36"/>
-    </row>
-    <row r="47" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="37" t="s">
+      <c r="H46" s="35"/>
+    </row>
+    <row r="47" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38" t="s">
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="G47" s="40">
+      <c r="G47" s="39">
         <v>32</v>
       </c>
-      <c r="H47" s="44" t="s">
+      <c r="H47" s="43" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
